--- a/Question_Sets/Role-specific skills/Machine Learning.xlsx
+++ b/Question_Sets/Role-specific skills/Machine Learning.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are applying the K-nearest neighbors regressor and want the value of the new observation to be equal to the average value of all data points.  What should be the number of neighbors for the K-nearest neighbor regressor?', 'ques_type': 2, 'options': ['Number of current data points', 'One', 'Number of current data points minus one', 'Number of current data points plus one'], 'score': 'Number of current data points'}, {'title': 'You are applying gender classification and want to estimate the portion of correctly classified observation.  Which metric should you use?', 'ques_type': 2, 'options': ['Duality', 'Accuracy', 'Precision', 'Recall'], 'score': 'Accuracy'}, {'title': 'You are applying a decision-tree regressor on house prices and have got 12,345 as the value of the residual sum of squares (RSS).  How should you find an acceptable value for RSS?', 'ques_type': 2, 'options': ['Find the highest price and set it as the maximal threshold for RSS.', 'Calculate the average house price and compute the difference.', 'Find the lowest price and set it as the minimal threshold for RSS.', 'Calculate the median house price and compute the difference.'], 'score': 'Calculate the average house price and compute the difference.'}, {'title': 'You are applying k-means clustering on geospatial data of cities in the USA to determine cities falling in the same climate region. The available data contains latitudes and longitudes of cities.  Which distance metric should you use?', 'ques_type': 2, 'options': ['Actual distance between the cities using existing roads.', 'Manhattan distance using latitude and longitude.', 'Correlation coefficient using latitude and longitude.', 'Euclidean distance using latitude and longitude.'], 'score': 'Euclidean distance using latitude and longitude.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are applying the K-nearest neighbors regressor and want the value of the new observation to be equal to the average value of all data points.  What should be the number of neighbors for the K-nearest neighbor regressor?",
+        "ques_type": 2,
+        "options": [
+            "Number of current data points",
+            "One",
+            "Number of current data points minus one",
+            "Number of current data points plus one"
+        ],
+        "score": "Number of current data points"
+    },
+    {
+        "title": "You are applying gender classification and want to estimate the portion of correctly classified observation.  Which metric should you use?",
+        "ques_type": 2,
+        "options": [
+            "Duality",
+            "Accuracy",
+            "Precision",
+            "Recall"
+        ],
+        "score": "Accuracy"
+    },
+    {
+        "title": "You are applying a decision-tree regressor on house prices and have got 12,345 as the value of the residual sum of squares (RSS).  How should you find an acceptable value for RSS?",
+        "ques_type": 2,
+        "options": [
+            "Find the highest price and set it as the maximal threshold for RSS.",
+            "Calculate the average house price and compute the difference.",
+            "Find the lowest price and set it as the minimal threshold for RSS.",
+            "Calculate the median house price and compute the difference."
+        ],
+        "score": "Calculate the average house price and compute the difference."
+    },
+    {
+        "title": "You are applying k-means clustering on geospatial data of cities in the USA to determine cities falling in the same climate region. The available data contains latitudes and longitudes of cities.  Which distance metric should you use?",
+        "ques_type": 2,
+        "options": [
+            "Actual distance between the cities using existing roads.",
+            "Manhattan distance using latitude and longitude.",
+            "Correlation coefficient using latitude and longitude.",
+            "Euclidean distance using latitude and longitude."
+        ],
+        "score": "Euclidean distance using latitude and longitude."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
